--- a/Simulation/Results_IJHE.xlsx
+++ b/Simulation/Results_IJHE.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mhdella\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AB1CF-818C-4BE9-92BC-35CDC37CF8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABE5208-FD23-486F-92C8-CB2873FE9E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{CB1C3559-5416-48F3-B8BC-D928517B57D1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{CB1C3559-5416-48F3-B8BC-D928517B57D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitive" sheetId="1" r:id="rId1"/>
     <sheet name="Cooperative" sheetId="2" r:id="rId2"/>
     <sheet name="Benchmark" sheetId="3" r:id="rId3"/>
-    <sheet name="Time (Second)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Metric</t>
   </si>
@@ -81,24 +80,12 @@
   </si>
   <si>
     <t>Net Present Value (NPV+) [bn£]</t>
-  </si>
-  <si>
-    <t>Competitive</t>
-  </si>
-  <si>
-    <t>Cooperative</t>
-  </si>
-  <si>
-    <t>Benchmark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,16 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E181B7-E924-4A42-8479-03992F664C32}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -674,7 +658,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -844,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A17ADE-3C85-4E1A-B3BF-2D0D92CA7C47}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -875,16 +859,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>182.75</v>
+        <v>174.18</v>
       </c>
       <c r="C2" s="3">
-        <v>152.06</v>
+        <v>148.63</v>
       </c>
       <c r="D2" s="3">
-        <v>117.75</v>
+        <v>117.58</v>
       </c>
       <c r="E2" s="3">
-        <v>187.67</v>
+        <v>180.82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -909,16 +893,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>33.31</v>
+        <v>24.74</v>
       </c>
       <c r="C4" s="3">
-        <v>21.88</v>
+        <v>18.46</v>
       </c>
       <c r="D4" s="3">
-        <v>14.65</v>
+        <v>14.48</v>
       </c>
       <c r="E4" s="3">
-        <v>29.5</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -926,16 +910,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>182.75</v>
+        <v>174.18</v>
       </c>
       <c r="C5" s="3">
-        <v>152.06</v>
+        <v>148.63</v>
       </c>
       <c r="D5" s="3">
-        <v>117.75</v>
+        <v>117.58</v>
       </c>
       <c r="E5" s="3">
-        <v>187.67</v>
+        <v>180.82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -943,16 +927,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="C6" s="3">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="D6" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>3.22</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -969,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>4285.2</v>
+        <v>9739.07</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -977,16 +961,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>606</v>
+        <v>554</v>
       </c>
       <c r="C8" s="3">
-        <v>824</v>
+        <v>771</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E8" s="3">
-        <v>562</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -994,106 +978,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>-301</v>
+        <v>-354</v>
       </c>
       <c r="C9" s="3">
-        <v>-171</v>
+        <v>-265</v>
       </c>
       <c r="D9" s="3">
-        <v>-107</v>
+        <v>-189</v>
       </c>
       <c r="E9" s="3">
-        <v>-363</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC180D2-5E02-4EF3-8532-0D3CAA1840A1}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.46484375" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
-        <v>14.6404609680175</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10.650167465209901</v>
-      </c>
-      <c r="D2" s="4">
-        <v>27.114923477172798</v>
-      </c>
-      <c r="E2" s="4">
-        <v>12.3900852203369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4">
-        <v>10.329164505004799</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10.2838013172149</v>
-      </c>
-      <c r="D3" s="4">
-        <v>12.9052138328552</v>
-      </c>
-      <c r="E3" s="4">
-        <v>12.990726947784401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <v>10.5520009994506</v>
-      </c>
-      <c r="C4" s="4">
-        <v>11.486701011657701</v>
-      </c>
-      <c r="D4" s="4">
-        <v>13.094622611999499</v>
-      </c>
-      <c r="E4" s="4">
-        <v>12.8812191486358</v>
+        <v>-373</v>
       </c>
     </row>
   </sheetData>
